--- a/NOTIFICACIONESMPLAY.xlsx
+++ b/NOTIFICACIONESMPLAY.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dina2\dina2\PYTHON\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dina2\dina2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{096D01FE-24F9-40F5-824D-72D573C68CBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F029EFD-94D8-443C-909D-EBAE0D0F8C91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="53">
   <si>
     <t>TIPO DE CONTENIDO</t>
   </si>
@@ -78,86 +78,133 @@
     <t>fecha</t>
   </si>
   <si>
-    <t>ESPN 3</t>
-  </si>
-  <si>
-    <t>Supercopa de Italia</t>
-  </si>
-  <si>
-    <t>Premier #7-SOEN 16181</t>
-  </si>
-  <si>
-    <t>Bundes #16-SOGB 105967</t>
-  </si>
-  <si>
-    <t>Riyadh Season Cup</t>
-  </si>
-  <si>
-    <t>Premier #21-SOEN 16320</t>
-  </si>
-  <si>
-    <t>LaLiga #18-SOIG 14989</t>
-  </si>
-  <si>
-    <t>Eredivisie #17-SOID 9880</t>
-  </si>
-  <si>
-    <t>Premier #21-SOEN 16315</t>
-  </si>
-  <si>
-    <t>Serie A #19-SOIM 14934</t>
-  </si>
-  <si>
-    <t>LaLiga #18-SOIG 14988</t>
-  </si>
-  <si>
-    <t>Serie A #19-SOIM 14929</t>
-  </si>
-  <si>
-    <t>Milan vs Inter</t>
-  </si>
-  <si>
-    <t>Manchester City vs Tottenham</t>
-  </si>
-  <si>
-    <t>RB Leipzig vs Bayern Munich</t>
-  </si>
-  <si>
-    <t>PSG vs Al Hilal + Al Nassr</t>
-  </si>
-  <si>
-    <t>Liverpool vs Chelsea</t>
-  </si>
-  <si>
-    <t>Sevilla vs Cádiz</t>
-  </si>
-  <si>
-    <t>Feyenoord vs Ajax</t>
-  </si>
-  <si>
-    <t>Arsenal vs Manchester United</t>
-  </si>
-  <si>
-    <t>Spezia vs Roma</t>
-  </si>
-  <si>
-    <t>Barcelona vs Getafe</t>
-  </si>
-  <si>
-    <t>Juventus vs Atalanta</t>
+    <t>Copa de Alemania SOGR 959</t>
+  </si>
+  <si>
+    <t>ESPN Extra</t>
+  </si>
+  <si>
+    <t>LaLiga #17-SOIG 14983</t>
+  </si>
+  <si>
+    <t>ESPN</t>
+  </si>
+  <si>
+    <t>Carabao #SF - VUELTA-SOEC 1202</t>
+  </si>
+  <si>
+    <t>ESPN2</t>
+  </si>
+  <si>
+    <t>Premier #22-SOEN 16327</t>
+  </si>
+  <si>
+    <t>Premier #22-SOEN 16328</t>
+  </si>
+  <si>
+    <t>Ligue 1 #22-SOFL 4334</t>
+  </si>
+  <si>
+    <t>Serie A #21-SOIM 14950</t>
+  </si>
+  <si>
+    <t>LaLiga #20-SOIG 15000</t>
+  </si>
+  <si>
+    <t>LPF AFA #2-SOAR 4086</t>
+  </si>
+  <si>
+    <t>Premier #22-SOEN 16331</t>
+  </si>
+  <si>
+    <t>Premier #22-SOEN 16332</t>
+  </si>
+  <si>
+    <t>Serie A #21-SOIM 14948</t>
+  </si>
+  <si>
+    <t>LPF AFA #2-SOAR 4090</t>
+  </si>
+  <si>
+    <t>LaLiga #20-SOIG 14998</t>
+  </si>
+  <si>
+    <t>Bundes #19-SOGB 105998</t>
+  </si>
+  <si>
+    <t>ESPN4</t>
+  </si>
+  <si>
+    <t>Carioca Serie A</t>
+  </si>
+  <si>
+    <t>GOLTV</t>
+  </si>
+  <si>
+    <t>Mainz 05 vs Bayern Munich</t>
+  </si>
+  <si>
+    <t>Betis vs Barcelona</t>
+  </si>
+  <si>
+    <t>Manchester United vs Nottingham Forest</t>
+  </si>
+  <si>
+    <t>Chelsea vs Fulham</t>
+  </si>
+  <si>
+    <t>Everton vs Arsenal</t>
+  </si>
+  <si>
+    <t>PSG vs Toulouse</t>
+  </si>
+  <si>
+    <t>Roma vs Empoli</t>
+  </si>
+  <si>
+    <t>Betis vs Celta de Vigo</t>
+  </si>
+  <si>
+    <t>Belgrano vs River Plate</t>
+  </si>
+  <si>
+    <t>Notthingham Forest vs Leeds Utd</t>
+  </si>
+  <si>
+    <t>Tottenham vs Manchester City</t>
+  </si>
+  <si>
+    <t>Inter vs Milan</t>
+  </si>
+  <si>
+    <t>Boca Juniors vs Central Córdoba (SdE)</t>
+  </si>
+  <si>
+    <t>Barcelona vs Sevilla</t>
+  </si>
+  <si>
+    <t>Wolfsburg vs Bayern Munich</t>
+  </si>
+  <si>
+    <t>Fluminense  vs Audax Rio</t>
+  </si>
+  <si>
+    <t>ESPN EXTRA HD</t>
+  </si>
+  <si>
+    <t>ESPN 4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="hh:mm:ss;@"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="173" formatCode="h:mm:ss;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -188,6 +235,15 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -203,7 +259,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -279,19 +335,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -305,21 +348,115 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
+      <left style="thin">
         <color rgb="FF000000"/>
-      </right>
+      </left>
+      <right/>
       <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -334,21 +471,26 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -663,10 +805,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -768,7 +910,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G4" t="str">
-        <f t="shared" ref="G4:G15" si="3">_xlfn.CONCAT(B4,H4,C4)</f>
+        <f t="shared" ref="G4" si="3">_xlfn.CONCAT(B4,H4,C4)</f>
         <v xml:space="preserve"> vs </v>
       </c>
       <c r="H4" t="s">
@@ -776,81 +918,27 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="12">
-        <v>44944</v>
-      </c>
-      <c r="D5" s="16">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>7</v>
-      </c>
       <c r="G5" t="str">
-        <f t="shared" si="3"/>
-        <v>Milan vs Inter vs 44944</v>
+        <f t="shared" ref="G5:G23" si="4">_xlfn.CONCAT(B5,H5,C5)</f>
+        <v xml:space="preserve"> vs </v>
       </c>
       <c r="H5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="12">
-        <v>44945</v>
-      </c>
-      <c r="D6" s="16">
-        <v>0.625</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>7</v>
-      </c>
       <c r="G6" t="str">
-        <f t="shared" si="3"/>
-        <v>Manchester City vs Tottenham vs 44945</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> vs </v>
       </c>
       <c r="H6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="12">
-        <v>44946</v>
-      </c>
-      <c r="D7" s="16">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>7</v>
-      </c>
       <c r="G7" t="str">
-        <f t="shared" si="3"/>
-        <v>RB Leipzig vs Bayern Munich vs 44946</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> vs </v>
       </c>
       <c r="H7" t="s">
         <v>6</v>
@@ -858,53 +946,53 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="13">
-        <v>44945</v>
-      </c>
-      <c r="D8" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="E8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="24">
+        <v>44958</v>
+      </c>
+      <c r="D8" s="20">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="4"/>
+        <v>Mainz 05 vs Bayern Munich vs 44958</v>
+      </c>
+      <c r="H8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="24">
+        <v>44958</v>
+      </c>
+      <c r="D9" s="21">
+        <v>0.625</v>
+      </c>
+      <c r="E9" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" t="str">
-        <f t="shared" si="3"/>
-        <v>PSG vs Al Hilal + Al Nassr vs 44945</v>
-      </c>
-      <c r="H8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="14">
-        <v>44947</v>
-      </c>
-      <c r="D9" s="17">
-        <v>0.3125</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>7</v>
+      <c r="F9" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="G9" t="str">
-        <f t="shared" si="3"/>
-        <v>Liverpool vs Chelsea vs 44947</v>
+        <f t="shared" si="4"/>
+        <v>Betis vs Barcelona vs 44958</v>
       </c>
       <c r="H9" t="s">
         <v>6</v>
@@ -912,26 +1000,26 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="15">
-        <v>44947</v>
-      </c>
-      <c r="D10" s="18">
+        <v>18</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="24">
+        <v>44958</v>
+      </c>
+      <c r="D10" s="21">
         <v>0.625</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="26" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="G10" t="str">
-        <f t="shared" si="3"/>
-        <v>Sevilla vs Cádiz vs 44947</v>
+        <f t="shared" si="4"/>
+        <v>Manchester United vs Nottingham Forest vs 44958</v>
       </c>
       <c r="H10" t="s">
         <v>6</v>
@@ -939,136 +1027,352 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="24">
+        <v>44960</v>
+      </c>
+      <c r="D11" s="21">
+        <v>0.625</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="4"/>
+        <v>Chelsea vs Fulham vs 44960</v>
+      </c>
+      <c r="H11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B12" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="24">
+        <v>44961</v>
+      </c>
+      <c r="D12" s="22">
+        <v>0.3125</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="4"/>
+        <v>Everton vs Arsenal vs 44961</v>
+      </c>
+      <c r="H12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="24">
+        <v>44961</v>
+      </c>
+      <c r="D13" s="23">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="4"/>
+        <v>PSG vs Toulouse vs 44961</v>
+      </c>
+      <c r="H13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="24">
+        <v>44961</v>
+      </c>
+      <c r="D14" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="4"/>
+        <v>Roma vs Empoli vs 44961</v>
+      </c>
+      <c r="H14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="24">
+        <v>44961</v>
+      </c>
+      <c r="D15" s="23">
+        <v>0.625</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="4"/>
+        <v>Betis vs Celta de Vigo vs 44961</v>
+      </c>
+      <c r="H15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="24">
+        <v>44961</v>
+      </c>
+      <c r="D16" s="23">
+        <v>0.71875</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="4"/>
+        <v>Belgrano vs River Plate vs 44961</v>
+      </c>
+      <c r="H16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="24">
+        <v>44962</v>
+      </c>
+      <c r="D17" s="23">
+        <v>0.375</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="4"/>
+        <v>Notthingham Forest vs Leeds Utd vs 44962</v>
+      </c>
+      <c r="H17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="24">
+        <v>44962</v>
+      </c>
+      <c r="D18" s="23">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="4"/>
+        <v>Tottenham vs Manchester City vs 44962</v>
+      </c>
+      <c r="H18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="24">
+        <v>44962</v>
+      </c>
+      <c r="D19" s="23">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="4"/>
+        <v>Inter vs Milan vs 44962</v>
+      </c>
+      <c r="H19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="24">
+        <v>44962</v>
+      </c>
+      <c r="D20" s="23">
+        <v>0.71875</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="4"/>
+        <v>Boca Juniors vs Central Córdoba (SdE) vs 44962</v>
+      </c>
+      <c r="H20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="24">
+        <v>44962</v>
+      </c>
+      <c r="D21" s="23">
+        <v>0.625</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="4"/>
+        <v>Barcelona vs Sevilla vs 44962</v>
+      </c>
+      <c r="H21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="24">
+        <v>44962</v>
+      </c>
+      <c r="D22" s="23">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="15">
-        <v>44948</v>
-      </c>
-      <c r="D11" s="18">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" t="str">
-        <f t="shared" si="3"/>
-        <v>Feyenoord vs Ajax vs 44948</v>
-      </c>
-      <c r="H11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="11" t="s">
+      <c r="G22" t="str">
+        <f t="shared" si="4"/>
+        <v>Wolfsburg vs Bayern Munich vs 44962</v>
+      </c>
+      <c r="H22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="15">
-        <v>44948</v>
-      </c>
-      <c r="D12" s="18">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" t="str">
-        <f t="shared" si="3"/>
-        <v>Arsenal vs Manchester United vs 44948</v>
-      </c>
-      <c r="H12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="11" t="s">
+      <c r="B23" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="24">
+        <v>44962</v>
+      </c>
+      <c r="D23" s="23">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E23" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="15">
-        <v>44948</v>
-      </c>
-      <c r="D13" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" t="str">
-        <f t="shared" si="3"/>
-        <v>Spezia vs Roma vs 44948</v>
-      </c>
-      <c r="H13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="15">
-        <v>44948</v>
-      </c>
-      <c r="D14" s="18">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" t="str">
-        <f t="shared" si="3"/>
-        <v>Barcelona vs Getafe vs 44948</v>
-      </c>
-      <c r="H14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="15">
-        <v>44948</v>
-      </c>
-      <c r="D15" s="18">
-        <v>0.61458333333333337</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" t="str">
-        <f t="shared" si="3"/>
-        <v>Juventus vs Atalanta vs 44948</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="F23" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="4"/>
+        <v>Fluminense  vs Audax Rio vs 44962</v>
+      </c>
+      <c r="H23" t="s">
         <v>6</v>
       </c>
     </row>

--- a/NOTIFICACIONESMPLAY.xlsx
+++ b/NOTIFICACIONESMPLAY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dina2\dina2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA23F91-627C-4444-B492-12C661D53026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0EEDC93-75BF-4AB3-B7C9-6E351F94711A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="128">
   <si>
     <t>FECHA</t>
   </si>
@@ -72,18 +72,12 @@
     <t>Arsenal</t>
   </si>
   <si>
-    <t>Boca Juniors</t>
-  </si>
-  <si>
     <t>Manchester United</t>
   </si>
   <si>
     <t>Napoli</t>
   </si>
   <si>
-    <t>Real Sociedad</t>
-  </si>
-  <si>
     <t>ESPN 2</t>
   </si>
   <si>
@@ -102,372 +96,337 @@
     <t>ESPN 3</t>
   </si>
   <si>
-    <t>Manchester City (ING)</t>
-  </si>
-  <si>
-    <t>Bayern Munich (ALE)</t>
-  </si>
-  <si>
-    <t>Benfica (POR)</t>
-  </si>
-  <si>
-    <t>Inter (ITA)</t>
-  </si>
-  <si>
-    <t>Real Madrid (ESP)</t>
-  </si>
-  <si>
-    <t>Chelsea (ING)</t>
-  </si>
-  <si>
-    <t>Milan (ITA)</t>
-  </si>
-  <si>
-    <t>Napoli (ITA)</t>
-  </si>
-  <si>
-    <t>Sporting Lisboa</t>
-  </si>
-  <si>
     <t>West Ham</t>
   </si>
   <si>
-    <t>Premier #31-SOEN 16417</t>
-  </si>
-  <si>
     <t>Leeds Utd</t>
   </si>
   <si>
     <t>Liverpool</t>
   </si>
   <si>
-    <t>Serie A #30-SOIM 15037</t>
-  </si>
-  <si>
     <t>Fiorentina</t>
   </si>
   <si>
     <t>Atalanta</t>
   </si>
   <si>
-    <t>UCL #4tos - VTA- SOIU 7914</t>
-  </si>
-  <si>
-    <t>Libertadores #2 SOIL1417</t>
-  </si>
-  <si>
     <t>Olimpia (PAR)</t>
   </si>
   <si>
     <t>Patronato (ARG)</t>
   </si>
   <si>
-    <t>Libertadores #2 SOIL1420</t>
-  </si>
-  <si>
     <t>Ind. Del Valle (ECU)</t>
   </si>
   <si>
-    <t>Liverpool (URU)</t>
-  </si>
-  <si>
-    <t>UCL #4tos - VTA- SOIU 7913</t>
-  </si>
-  <si>
-    <t>Libertadores #2 SOIL1415</t>
-  </si>
-  <si>
     <t>Internacional (BRA)</t>
   </si>
   <si>
     <t>Metropolitanos (VEN)</t>
   </si>
   <si>
-    <t>Libertadores #2 SOIL1418</t>
-  </si>
-  <si>
     <t>Boca Juniors (ARG)</t>
   </si>
   <si>
     <t>Deportivo Pereira (COL)</t>
   </si>
   <si>
-    <t>Copa SUD #2 SOSU 521</t>
-  </si>
-  <si>
-    <t>Independiente Santa Fe COL</t>
-  </si>
-  <si>
     <t>Gimnasia y Esgrima La Plata ARG</t>
   </si>
   <si>
-    <t>Libertadores #2 SOIL1416</t>
-  </si>
-  <si>
-    <t>Fluminense (BRA)</t>
-  </si>
-  <si>
     <t>The Strongest (BOL)</t>
   </si>
   <si>
-    <t>Copa SUD #2 SOSU 518</t>
-  </si>
-  <si>
-    <t>Estudiantes de La Plata ARG</t>
-  </si>
-  <si>
-    <t>Tacuary PAR</t>
-  </si>
-  <si>
-    <t>UCL #4tos - VTA- SOIU 7915</t>
-  </si>
-  <si>
-    <t>Libertadores #2 SOIL1421</t>
-  </si>
-  <si>
     <t>Nacional (URU)</t>
   </si>
   <si>
-    <t>Ind. Medellín (COL)</t>
-  </si>
-  <si>
-    <t>Libertadores #2 SOIL1423</t>
-  </si>
-  <si>
-    <t>River Plate (ARG)</t>
-  </si>
-  <si>
     <t>Sporting Cristal (PER)</t>
   </si>
   <si>
-    <t>UCL #4tos - VTA- SOIU 7916</t>
-  </si>
-  <si>
-    <t>Copa SUD #2 SOSU 524</t>
-  </si>
-  <si>
     <t>Defensa y Justicia ARG</t>
   </si>
   <si>
     <t>América MG BRA</t>
   </si>
   <si>
-    <t>Libertadores #2 SOIL1426</t>
-  </si>
-  <si>
-    <t>Barcelona (ECU)</t>
-  </si>
-  <si>
     <t>Bolivar (BOL)</t>
   </si>
   <si>
-    <t>Copa SUD #2 SOSU 525</t>
-  </si>
-  <si>
     <t>LDU Quito ECU</t>
   </si>
   <si>
     <t>Magallanes CHI</t>
   </si>
   <si>
-    <t>Libertadores #2 SOIL1422</t>
-  </si>
-  <si>
-    <t>Colo Colo (CHI)</t>
-  </si>
-  <si>
     <t>Monagas (VEN)</t>
   </si>
   <si>
-    <t>UEL #4tos - VTA-SOUC 5364</t>
-  </si>
-  <si>
-    <t>Copa SUD #2 SOSU 526</t>
-  </si>
-  <si>
     <t>Peñarol URU</t>
   </si>
   <si>
     <t>Millonarios COL</t>
   </si>
   <si>
-    <t>Libertadores #2 SOIL1428</t>
-  </si>
-  <si>
     <t>Atlético Nacional (COL)</t>
   </si>
   <si>
     <t>Melgar (PER)</t>
   </si>
   <si>
-    <t>Libertadores #2 SOIL1430</t>
-  </si>
-  <si>
     <t>Libertad (PAR)</t>
   </si>
   <si>
     <t>Alianza Lima (PER)</t>
   </si>
   <si>
-    <t>UEL #4tos - VTA-SOUC 5365</t>
-  </si>
-  <si>
-    <t>Libertadores #2 SOIL1427</t>
-  </si>
-  <si>
     <t>Racing (ARG)</t>
   </si>
   <si>
     <t>Aucas (ECU)</t>
   </si>
   <si>
-    <t>Libertadores #2 SOIL1429</t>
-  </si>
-  <si>
-    <t>Palmeiras (BRA)</t>
-  </si>
-  <si>
     <t>Cerro Porteño (PAR)</t>
   </si>
   <si>
-    <t>Copa SUD #2 SOSU 529</t>
-  </si>
-  <si>
-    <t>Deportes Tolima COL</t>
-  </si>
-  <si>
-    <t>Tigre ARG</t>
-  </si>
-  <si>
-    <t>Copa SUD #2 SOSU 528</t>
-  </si>
-  <si>
     <t>Botafogo BRA</t>
   </si>
   <si>
     <t>Univ. César Vallejo PER</t>
   </si>
   <si>
-    <t>Premier #32-SOEN 16425</t>
-  </si>
-  <si>
-    <t>Southampton</t>
-  </si>
-  <si>
-    <t>Premier #32-SOEN 16429</t>
-  </si>
-  <si>
     <t>Fulham</t>
   </si>
   <si>
-    <t>FA Cup #Semi 2-SOFA 2626</t>
-  </si>
-  <si>
-    <t>Sheffield United</t>
-  </si>
-  <si>
-    <t>LaLiga #30-SOIG 15048</t>
-  </si>
-  <si>
-    <t>Real Madrid</t>
-  </si>
-  <si>
-    <t>Celta de Vigo</t>
-  </si>
-  <si>
-    <t>Premier #32-SOEN 16431</t>
-  </si>
-  <si>
-    <t>Nottingham Forest</t>
-  </si>
-  <si>
-    <t>Serie A #31-SOIM 15049</t>
-  </si>
-  <si>
-    <t>Lazio</t>
-  </si>
-  <si>
-    <t>Torino</t>
-  </si>
-  <si>
-    <t>Bundes #29-SOGB 106091</t>
-  </si>
-  <si>
-    <t>Hertha Berlin</t>
-  </si>
-  <si>
-    <t>Werder Bremen</t>
-  </si>
-  <si>
-    <t>Bundes #29-SOGB 106083</t>
-  </si>
-  <si>
     <t>Borussia Dortmund</t>
   </si>
   <si>
-    <t>Eintracht Frankfurt</t>
-  </si>
-  <si>
-    <t>LaLiga #30-SOIG 15049</t>
-  </si>
-  <si>
-    <t>Rayo Vallecano</t>
-  </si>
-  <si>
-    <t>FA Cup #Semi 1-SOFA 2625</t>
-  </si>
-  <si>
-    <t>Brighton &amp; Hove Albion</t>
-  </si>
-  <si>
-    <t>Serie A #31-SOIM 15048</t>
-  </si>
-  <si>
-    <t>LPF AFA #13-SOAR 4242</t>
-  </si>
-  <si>
-    <t>Independiente</t>
-  </si>
-  <si>
-    <t>Serie A #31-SOIM 15050</t>
-  </si>
-  <si>
-    <t>Milan</t>
-  </si>
-  <si>
     <t>Lecce</t>
   </si>
   <si>
-    <t>LPF AFA #13-SOAR 4244</t>
-  </si>
-  <si>
-    <t>Rosario Ctral.</t>
-  </si>
-  <si>
-    <t>Ligue 1 #32-SOFL 4399</t>
-  </si>
-  <si>
-    <t>Lyon</t>
-  </si>
-  <si>
-    <t>Olympique Marseille</t>
-  </si>
-  <si>
-    <t>Premier #32-SOEN 16424</t>
-  </si>
-  <si>
-    <t>Bournemouth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESPN 2 </t>
+    <t>Premier #34-SOEN 16450</t>
+  </si>
+  <si>
+    <t>Leicester City</t>
+  </si>
+  <si>
+    <t>Everton</t>
+  </si>
+  <si>
+    <t>Brasileirao #3-SOBC 1910</t>
+  </si>
+  <si>
+    <t>Vasco</t>
+  </si>
+  <si>
+    <t>Bahia</t>
+  </si>
+  <si>
+    <t>Premier #34-SOEN 16445</t>
+  </si>
+  <si>
+    <t>Chelsea</t>
+  </si>
+  <si>
+    <t>Libertadores #3 SOIL1432</t>
+  </si>
+  <si>
+    <t>Ñublense (CHI)</t>
+  </si>
+  <si>
+    <t>Libertadores #3 SOIL1434</t>
+  </si>
+  <si>
+    <t>Libertadores #3 SOIL1436</t>
+  </si>
+  <si>
+    <t>Serie A #33-SOIM 15074</t>
+  </si>
+  <si>
+    <t>Udinese</t>
+  </si>
+  <si>
+    <t>Libertadores #3 SOIL1435</t>
+  </si>
+  <si>
+    <t>Corinthians (BRA)</t>
+  </si>
+  <si>
+    <t>LaLiga #33-SOIG 15063</t>
+  </si>
+  <si>
+    <t>Barcelona</t>
+  </si>
+  <si>
+    <t>Osasuna</t>
+  </si>
+  <si>
+    <t>Copa SUD #3 SOSU 534</t>
+  </si>
+  <si>
+    <t>Huracán ARG</t>
+  </si>
+  <si>
+    <t>Danubio URU</t>
+  </si>
+  <si>
+    <t>Copa SUD #3 SOSU 535</t>
+  </si>
+  <si>
+    <t>Premier #28-SOEN 16390</t>
+  </si>
+  <si>
+    <t>Libertadores #3 SOIL1437</t>
+  </si>
+  <si>
+    <t>Libertadores #3 SOIL1440</t>
+  </si>
+  <si>
+    <t>Atlético MG (BRA)</t>
+  </si>
+  <si>
+    <t>Serie A #33-SOIM 15068</t>
+  </si>
+  <si>
+    <t>Serie A #33-SOIM 15067</t>
+  </si>
+  <si>
+    <t>Hellas Verona</t>
+  </si>
+  <si>
+    <t>Inter</t>
+  </si>
+  <si>
+    <t>Libertadores #3 SOIL1438</t>
+  </si>
+  <si>
+    <t>Copa SUD #3 SOSU 541</t>
+  </si>
+  <si>
+    <t>Libertadores #3 SOIL1442</t>
+  </si>
+  <si>
+    <t>Independiente Medellín COL</t>
+  </si>
+  <si>
+    <t>Premier #28-SOEN 16389</t>
+  </si>
+  <si>
+    <t>Libertadores #3 SOIL1439</t>
+  </si>
+  <si>
+    <t>Colo-Colo (CHI)</t>
+  </si>
+  <si>
+    <t>Premier #28-SOEN 16387</t>
+  </si>
+  <si>
+    <t>Brighton</t>
+  </si>
+  <si>
+    <t>Libertadores #3 SOIL1443</t>
+  </si>
+  <si>
+    <t>Copa SUD #3 SOSU 545</t>
+  </si>
+  <si>
+    <t>Libertadores #3 SOIL1446</t>
+  </si>
+  <si>
+    <t>Libertadores #3 SOIL1444</t>
+  </si>
+  <si>
+    <t>Flamengo (BRA)</t>
+  </si>
+  <si>
+    <t>Libertadores #3 SOIL1445</t>
+  </si>
+  <si>
+    <t>Athletico Paranaense (BRA)</t>
+  </si>
+  <si>
+    <t>Copa SUD #3 SOSU 542</t>
+  </si>
+  <si>
+    <t>Goiás BRA</t>
+  </si>
+  <si>
+    <t>Copa SUD #3 SOSU 544</t>
+  </si>
+  <si>
+    <t>LaLiga #33-SOIG 15064</t>
+  </si>
+  <si>
+    <t>Espanyol</t>
+  </si>
+  <si>
+    <t>Copa SUD #3 SOSU 546</t>
+  </si>
+  <si>
+    <t>Audax Italiano CHI</t>
+  </si>
+  <si>
+    <t>Blooming BOL</t>
+  </si>
+  <si>
+    <t>Premier #35-SOEN 16458</t>
+  </si>
+  <si>
+    <t>Premier #35-SOEN 16457</t>
+  </si>
+  <si>
+    <t>Brentford</t>
+  </si>
+  <si>
+    <t>Premier #35-SOEN 16461</t>
+  </si>
+  <si>
+    <t>Tottenham</t>
+  </si>
+  <si>
+    <t>Crystal Palace</t>
+  </si>
+  <si>
+    <t>Serie A #34-SOIM 15081</t>
+  </si>
+  <si>
+    <t>Roma</t>
+  </si>
+  <si>
+    <t>Serie A #34-SOIM 15075</t>
+  </si>
+  <si>
+    <t>Eredivisie #31-SOID 9922</t>
+  </si>
+  <si>
+    <t>Excelsior</t>
+  </si>
+  <si>
+    <t>Feyenoord</t>
+  </si>
+  <si>
+    <t>Bundes #31-SOGB 106101</t>
+  </si>
+  <si>
+    <t>Wolfsburg</t>
+  </si>
+  <si>
+    <t>LPF AFA #15 -SOAR 4271</t>
+  </si>
+  <si>
+    <t>Boca Jrs</t>
+  </si>
+  <si>
+    <t>Serie A #34-SOIM 15080</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="170" formatCode="h:mm:ss;@"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -582,7 +541,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -590,33 +549,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="21" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="21" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="21" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="21" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -931,10 +879,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -975,68 +923,68 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="5">
+        <v>58</v>
+      </c>
+      <c r="E2" s="9">
         <v>0.58333333333333337</v>
       </c>
       <c r="F2" s="14">
-        <v>45033</v>
+        <v>45047</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>36</v>
+      <c r="A3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="8">
-        <v>0.57291666666666663</v>
+      <c r="D3" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0.75</v>
       </c>
       <c r="F3" s="15">
-        <v>45033</v>
+        <v>45047</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>141</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="5">
+        <v>63</v>
+      </c>
+      <c r="E4" s="11">
         <v>0.58333333333333337</v>
       </c>
       <c r="F4" s="14">
-        <v>45034</v>
+        <v>45048</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>2</v>
@@ -1044,22 +992,22 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0.79166666666666663</v>
+        <v>49</v>
+      </c>
+      <c r="E5" s="11">
+        <v>0.70833333333333337</v>
       </c>
       <c r="F5" s="14">
-        <v>45034</v>
+        <v>45048</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>2</v>
@@ -1067,22 +1015,22 @@
     </row>
     <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0.875</v>
+        <v>25</v>
+      </c>
+      <c r="E6" s="11">
+        <v>0.79166666666666663</v>
       </c>
       <c r="F6" s="14">
-        <v>45034</v>
+        <v>45048</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>2</v>
@@ -1090,160 +1038,160 @@
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0.58333333333333337</v>
+        <v>33</v>
+      </c>
+      <c r="E7" s="11">
+        <v>0.875</v>
       </c>
       <c r="F7" s="14">
-        <v>45034</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>16</v>
+        <v>45048</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0.70833333333333337</v>
+        <v>13</v>
+      </c>
+      <c r="E8" s="11">
+        <v>0.57291666666666663</v>
       </c>
       <c r="F8" s="14">
-        <v>45034</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>16</v>
+        <v>45048</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="5">
+        <v>27</v>
+      </c>
+      <c r="E9" s="11">
         <v>0.79166666666666663</v>
       </c>
       <c r="F9" s="14">
-        <v>45034</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>16</v>
+        <v>45048</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="5">
-        <v>0.875</v>
+        <v>74</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0.52083333333333337</v>
       </c>
       <c r="F10" s="14">
-        <v>45034</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>16</v>
+        <v>45048</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="5">
+        <v>77</v>
+      </c>
+      <c r="E11" s="9">
         <v>0.70833333333333337</v>
       </c>
       <c r="F11" s="14">
-        <v>45034</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>18</v>
+        <v>45048</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>59</v>
+      <c r="A12" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" s="8">
+      <c r="D12" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="10">
         <v>0.79166666666666663</v>
       </c>
       <c r="F12" s="15">
-        <v>45034</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>18</v>
+        <v>45048</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="5">
+        <v>20</v>
+      </c>
+      <c r="E13" s="11">
         <v>0.58333333333333337</v>
       </c>
-      <c r="F13" s="16">
-        <v>45035</v>
+      <c r="F13" s="14">
+        <v>45049</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>2</v>
@@ -1251,22 +1199,22 @@
     </row>
     <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="5">
+        <v>34</v>
+      </c>
+      <c r="E14" s="11">
         <v>0.70833333333333337</v>
       </c>
-      <c r="F14" s="16">
-        <v>45035</v>
+      <c r="F14" s="14">
+        <v>45049</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>2</v>
@@ -1274,22 +1222,22 @@
     </row>
     <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="5">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="F15" s="16">
-        <v>45035</v>
+        <v>47</v>
+      </c>
+      <c r="E15" s="11">
+        <v>0.8125</v>
+      </c>
+      <c r="F15" s="14">
+        <v>45049</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>2</v>
@@ -1297,183 +1245,183 @@
     </row>
     <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="5">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="F16" s="16">
-        <v>45035</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>16</v>
+        <v>55</v>
+      </c>
+      <c r="E16" s="11">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F16" s="14">
+        <v>45049</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" s="5">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="F17" s="16">
-        <v>45035</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>16</v>
+        <v>86</v>
+      </c>
+      <c r="E17" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F17" s="14">
+        <v>45049</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E18" s="5">
-        <v>0.875</v>
-      </c>
-      <c r="F18" s="16">
-        <v>45035</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>16</v>
+        <v>38</v>
+      </c>
+      <c r="E18" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F18" s="14">
+        <v>45049</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E19" s="5">
+        <v>37</v>
+      </c>
+      <c r="E19" s="12">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F19" s="14">
+        <v>45049</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="11">
         <v>0.875</v>
       </c>
-      <c r="F19" s="16">
-        <v>45035</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E20" s="8">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="F20" s="17">
-        <v>45035</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>18</v>
+      <c r="F20" s="14">
+        <v>45049</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="5">
+        <v>53</v>
+      </c>
+      <c r="E21" s="11">
         <v>0.58333333333333337</v>
       </c>
-      <c r="F21" s="16">
-        <v>45036</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>2</v>
+      <c r="F21" s="14">
+        <v>45049</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>83</v>
+      <c r="A22" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>93</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E22" s="5">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="F22" s="16">
-        <v>45036</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>2</v>
+      <c r="D22" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="12">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F22" s="15">
+        <v>45049</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E23" s="5">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="F23" s="16">
-        <v>45036</v>
+        <v>12</v>
+      </c>
+      <c r="E23" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F23" s="8">
+        <v>45050</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>2</v>
@@ -1481,22 +1429,22 @@
     </row>
     <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E24" s="5">
-        <v>0.875</v>
-      </c>
-      <c r="F24" s="16">
-        <v>45036</v>
+        <v>45</v>
+      </c>
+      <c r="E24" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F24" s="8">
+        <v>45050</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>2</v>
@@ -1504,344 +1452,344 @@
     </row>
     <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25" s="5">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="F25" s="16">
-        <v>45036</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>16</v>
+        <v>42</v>
+      </c>
+      <c r="E25" s="11">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F25" s="8">
+        <v>45050</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E26" s="5">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="F26" s="16">
-        <v>45036</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>16</v>
+        <v>41</v>
+      </c>
+      <c r="E26" s="11">
+        <v>0.875</v>
+      </c>
+      <c r="F26" s="8">
+        <v>45050</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E27" s="5">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="F27" s="16">
-        <v>45036</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>16</v>
+        <v>100</v>
+      </c>
+      <c r="E27" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F27" s="8">
+        <v>45050</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>99</v>
+        <v>46</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E28" s="5">
-        <v>0.875</v>
-      </c>
-      <c r="F28" s="16">
-        <v>45036</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>16</v>
+        <v>102</v>
+      </c>
+      <c r="E28" s="11">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F28" s="8">
+        <v>45050</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>102</v>
+      <c r="A29" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E29" s="8">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="F29" s="17">
-        <v>45036</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>18</v>
+      <c r="D29" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E29" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F29" s="8">
+        <v>45050</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E30" s="5">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="F30" s="16">
-        <v>45037</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>2</v>
+        <v>39</v>
+      </c>
+      <c r="E30" s="11">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F30" s="8">
+        <v>45050</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E31" s="10">
-        <v>0.27083333333333331</v>
-      </c>
-      <c r="F31" s="18">
-        <v>45038</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>2</v>
+      <c r="E31" s="11">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F31" s="8">
+        <v>45050</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B32" s="9" t="s">
-        <v>10</v>
+      <c r="B32" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="E32" s="10">
-        <v>0.44791666666666669</v>
-      </c>
-      <c r="F32" s="18">
-        <v>45038</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>2</v>
+      <c r="D32" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E32" s="11">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F32" s="8">
+        <v>45050</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>111</v>
+        <v>10</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="E33" s="5">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="F33" s="18">
-        <v>45038</v>
+        <v>21</v>
+      </c>
+      <c r="E33" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="F33" s="14">
+        <v>45052</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B34" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="9" t="s">
+      <c r="E34" s="11">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F34" s="14">
+        <v>45052</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="E34" s="10">
+      <c r="B35" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E35" s="11">
         <v>0.375</v>
       </c>
-      <c r="F34" s="18">
-        <v>45038</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="9" t="s">
+      <c r="F35" s="14">
+        <v>45052</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="E35" s="10">
+      <c r="B36" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E36" s="12">
         <v>0.45833333333333331</v>
       </c>
-      <c r="F35" s="18">
-        <v>45038</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="B36" s="9" t="s">
+      <c r="F36" s="15">
+        <v>45052</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="9" t="s">
+      <c r="B37" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" s="11">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="F37" s="14">
+        <v>45053</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E36" s="10">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="F36" s="18">
-        <v>45038</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
+      <c r="B38" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="C38" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="E37" s="10">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="F37" s="18">
-        <v>45038</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="E38" s="13">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="F38" s="19">
-        <v>45038</v>
-      </c>
-      <c r="G38" s="11" t="s">
-        <v>17</v>
+      <c r="E38" s="11">
+        <v>0.3125</v>
+      </c>
+      <c r="F38" s="14">
+        <v>45053</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>127</v>
+        <v>54</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E39" s="5">
+        <v>124</v>
+      </c>
+      <c r="E39" s="13">
         <v>0.4375</v>
       </c>
       <c r="F39" s="14">
-        <v>45039</v>
+        <v>45053</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>2</v>
@@ -1849,140 +1797,48 @@
     </row>
     <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E40" s="5">
-        <v>0.57291666666666663</v>
-      </c>
-      <c r="F40" s="14">
-        <v>45039</v>
+        <v>126</v>
+      </c>
+      <c r="E40" s="11">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="F40" s="16">
+        <v>45053</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>9</v>
+      <c r="A41" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="E41" s="5">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="F41" s="14">
-        <v>45039</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="E42" s="5">
+      <c r="D41" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E41" s="12">
         <v>0.45833333333333331</v>
       </c>
-      <c r="F42" s="14">
-        <v>45039</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E43" s="5">
-        <v>0.5625</v>
-      </c>
-      <c r="F43" s="14">
-        <v>45039</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="E44" s="5">
-        <v>0.57291666666666663</v>
-      </c>
-      <c r="F44" s="14">
-        <v>45039</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E45" s="8">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="F45" s="15">
-        <v>45039</v>
-      </c>
-      <c r="G45" s="11" t="s">
-        <v>17</v>
+      <c r="F41" s="15">
+        <v>45053</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
